--- a/public/Assets/GST.xlsx
+++ b/public/Assets/GST.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>SI.No</t>
   </si>
@@ -56,7 +56,7 @@
     <t>INV092004031675</t>
   </si>
   <si>
-    <t>Maharashtra</t>
+    <t>PINE LABS PRIVATE LIMITED</t>
   </si>
   <si>
     <t>29-04-2020</t>
@@ -65,6 +65,9 @@
     <t>27AAACP3325J1ZI</t>
   </si>
   <si>
+    <t>PHOENIX MILLS LIMITED</t>
+  </si>
+  <si>
     <t>25-04-2020</t>
   </si>
   <si>
@@ -74,9 +77,15 @@
     <t>MIB0045430</t>
   </si>
   <si>
+    <t>UNIQUE ESTATES DEVELOPMENT COMPANY LIMITED</t>
+  </si>
+  <si>
     <t>27AAACO5140L1ZE</t>
   </si>
   <si>
+    <t>OFFBEAT DEVELOPERS PRIVATE LIMITED</t>
+  </si>
+  <si>
     <t>11-05-2020</t>
   </si>
   <si>
@@ -86,6 +95,9 @@
     <t>IO/20-21/05/041</t>
   </si>
   <si>
+    <t>INTECH ONLINE PRIVATE LIMITED</t>
+  </si>
+  <si>
     <t>26-05-2020</t>
   </si>
   <si>
@@ -95,6 +107,9 @@
     <t>ICAM2021-47</t>
   </si>
   <si>
+    <t>M P ASSOCIATES</t>
+  </si>
+  <si>
     <t>31-05-2020</t>
   </si>
   <si>
@@ -104,6 +119,9 @@
     <t>MAP2015273976415</t>
   </si>
   <si>
+    <t>HDFC BANK LIMITED</t>
+  </si>
+  <si>
     <t>05-05-2020</t>
   </si>
   <si>
@@ -113,12 +131,18 @@
     <t>VFMS/002/20-21</t>
   </si>
   <si>
+    <t>VARAD FACILITIES MANAGEMENT SOLUTIONS</t>
+  </si>
+  <si>
     <t>27AABCB1518L1ZS</t>
   </si>
   <si>
     <t>27CFIF0162538300</t>
   </si>
   <si>
+    <t>BAJAJ FINANCE LIMITED</t>
+  </si>
+  <si>
     <t>30-06-2020</t>
   </si>
   <si>
@@ -128,21 +152,33 @@
     <t>EZECNPJUN20035</t>
   </si>
   <si>
+    <t>EZETAP MOBILE SOLUTIONS PRIVATE LIMITED</t>
+  </si>
+  <si>
     <t>15-06-2020</t>
   </si>
   <si>
     <t>27AAACH1458C1ZZ</t>
   </si>
   <si>
+    <t>TATA TELESERVICES (MAHARASHTRA) LIMITED</t>
+  </si>
+  <si>
     <t>27BXZPB0207R1ZX</t>
   </si>
   <si>
+    <t>DEVIDAS CHANDRAKANT BAGDE</t>
+  </si>
+  <si>
     <t>09-06-2020</t>
   </si>
   <si>
     <t>27AAACX1645B1ZO</t>
   </si>
   <si>
+    <t>XIAOMI TECHNOLOGY INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
     <t>10-06-2020</t>
   </si>
   <si>
@@ -152,6 +188,9 @@
     <t>2020-21/01</t>
   </si>
   <si>
+    <t>RASHMI UDDHAV THACKERAY</t>
+  </si>
+  <si>
     <t>28-07-2020</t>
   </si>
   <si>
@@ -167,6 +206,9 @@
     <t>SE/2020-21/0055</t>
   </si>
   <si>
+    <t>SOHAMRAJ ENTERPRISES</t>
+  </si>
+  <si>
     <t>01-08-2020</t>
   </si>
   <si>
@@ -176,6 +218,9 @@
     <t>27MHR/0820/2611</t>
   </si>
   <si>
+    <t>ONEOTT INTERTAINMENT LIMITED</t>
+  </si>
+  <si>
     <t>03-08-2020</t>
   </si>
   <si>
@@ -185,12 +230,18 @@
     <t>CS/1129/20-21</t>
   </si>
   <si>
+    <t>RAMESH DEVJI PATEL</t>
+  </si>
+  <si>
     <t>04-08-2020</t>
   </si>
   <si>
     <t>27CKPPM3496R1ZW</t>
   </si>
   <si>
+    <t>ANUPAMA SUNIL TIWARI</t>
+  </si>
+  <si>
     <t>19-09-2020</t>
   </si>
   <si>
@@ -200,6 +251,9 @@
     <t>S00169</t>
   </si>
   <si>
+    <t>MADEVA DEVABHAI CHOUDHARY</t>
+  </si>
+  <si>
     <t>31-08-2020</t>
   </si>
   <si>
@@ -209,6 +263,9 @@
     <t>083/20-21</t>
   </si>
   <si>
+    <t>KISHORE GANGADHAR PUNJABI</t>
+  </si>
+  <si>
     <t>30-09-2020</t>
   </si>
   <si>
@@ -218,6 +275,9 @@
     <t>AOD-2021-4511</t>
   </si>
   <si>
+    <t>AMAZON PAY (INDIA) PRIVATE LIMITED</t>
+  </si>
+  <si>
     <t>05-11-2020</t>
   </si>
   <si>
@@ -248,6 +308,9 @@
     <t>MHEC202100124371</t>
   </si>
   <si>
+    <t>MOBITECH CREATIONS PRIVATE LIMITED</t>
+  </si>
+  <si>
     <t>20-02-2021</t>
   </si>
   <si>
@@ -255,6 +318,9 @@
   </si>
   <si>
     <t>CHE/20-21/141</t>
+  </si>
+  <si>
+    <t>A B C V &amp; ASSOCIATES</t>
   </si>
 </sst>
 </file>
@@ -685,7 +751,7 @@
         <v>24423</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -702,13 +768,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>531354</v>
@@ -717,7 +783,7 @@
         <v>450300</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -737,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>270220210100180</v>
@@ -749,7 +815,7 @@
         <v>38918</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -766,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>15340</v>
@@ -781,7 +847,7 @@
         <v>13000</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -798,13 +864,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>22302</v>
@@ -813,7 +879,7 @@
         <v>18900</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -830,13 +896,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>873.2</v>
@@ -845,7 +911,7 @@
         <v>740</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -862,13 +928,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>11799.88</v>
@@ -877,7 +943,7 @@
         <v>9999.9</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -894,13 +960,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>283</v>
@@ -909,7 +975,7 @@
         <v>239.84</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -926,13 +992,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>787.85</v>
@@ -941,7 +1007,7 @@
         <v>667.67</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>120.18</v>
@@ -958,10 +1024,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>2164811467</v>
@@ -973,7 +1039,7 @@
         <v>51250</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -990,10 +1056,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>793</v>
@@ -1005,7 +1071,7 @@
         <v>360</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1022,10 +1088,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>202006270065576</v>
@@ -1037,7 +1103,7 @@
         <v>138047.59</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1054,13 +1120,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>708000</v>
@@ -1069,7 +1135,7 @@
         <v>600000</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1086,10 +1152,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>202007290122840</v>
@@ -1101,7 +1167,7 @@
         <v>0.09</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H16">
         <v>0.03</v>
@@ -1118,13 +1184,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>3864</v>
@@ -1133,7 +1199,7 @@
         <v>3274</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1216,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>21000</v>
@@ -1165,7 +1231,7 @@
         <v>17796.61</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1182,13 +1248,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>190</v>
@@ -1197,7 +1263,7 @@
         <v>160.55</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1214,10 +1280,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>32</v>
@@ -1229,7 +1295,7 @@
         <v>980</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1246,13 +1312,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1261,7 +1327,7 @@
         <v>84.75</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1278,13 +1344,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>739</v>
@@ -1293,7 +1359,7 @@
         <v>660</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1310,13 +1376,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <v>28820.37</v>
@@ -1325,7 +1391,7 @@
         <v>24424.04</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H23">
         <v>4396.33</v>
@@ -1342,10 +1408,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>202011240043519</v>
@@ -1357,7 +1423,7 @@
         <v>20097.31</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H24">
         <v>3617.51</v>
@@ -1374,13 +1440,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>531</v>
@@ -1389,7 +1455,7 @@
         <v>450</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1406,10 +1472,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D26">
         <v>202011190078749</v>
@@ -1421,7 +1487,7 @@
         <v>42417.98</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H26">
         <v>11877.03</v>
@@ -1438,13 +1504,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E27">
         <v>3231.02</v>
@@ -1453,7 +1519,7 @@
         <v>2738.14</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1470,13 +1536,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>29500</v>
@@ -1485,7 +1551,7 @@
         <v>25000</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="H28">
         <v>4500</v>

--- a/public/Assets/GST.xlsx
+++ b/public/Assets/GST.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>SI.No</t>
   </si>
@@ -47,18 +47,6 @@
     <t>SGST AMT</t>
   </si>
   <si>
-    <t>30-04-2020</t>
-  </si>
-  <si>
-    <t>09AACCP7457K1ZV</t>
-  </si>
-  <si>
-    <t>INV092004031675</t>
-  </si>
-  <si>
-    <t>PINE LABS PRIVATE LIMITED</t>
-  </si>
-  <si>
     <t>29-04-2020</t>
   </si>
   <si>
@@ -80,247 +68,79 @@
     <t>UNIQUE ESTATES DEVELOPMENT COMPANY LIMITED</t>
   </si>
   <si>
+    <t>MIB0045431</t>
+  </si>
+  <si>
+    <t>11-05-2020</t>
+  </si>
+  <si>
+    <t>27AABCK3805B1Z2</t>
+  </si>
+  <si>
+    <t>IO/20-21/05/041</t>
+  </si>
+  <si>
+    <t>INTECH ONLINE PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>06-06-2020</t>
+  </si>
+  <si>
+    <t>27AALFV0333Q1ZN</t>
+  </si>
+  <si>
+    <t>VFMS/026/20-21</t>
+  </si>
+  <si>
+    <t>VARAD FACILITIES MANAGEMENT SOLUTIONS</t>
+  </si>
+  <si>
+    <t>05-07-2020</t>
+  </si>
+  <si>
+    <t>VFMS/052/20-21</t>
+  </si>
+  <si>
+    <t>28-07-2020</t>
+  </si>
+  <si>
+    <t>29AAACX1645B1ZK</t>
+  </si>
+  <si>
+    <t>XIAOMI TECHNOLOGY INDIA PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>18-07-2020</t>
+  </si>
+  <si>
     <t>27AAACO5140L1ZE</t>
   </si>
   <si>
     <t>OFFBEAT DEVELOPERS PRIVATE LIMITED</t>
   </si>
   <si>
-    <t>11-05-2020</t>
-  </si>
-  <si>
-    <t>27AABCK3805B1Z2</t>
-  </si>
-  <si>
-    <t>IO/20-21/05/041</t>
-  </si>
-  <si>
-    <t>INTECH ONLINE PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>26-05-2020</t>
-  </si>
-  <si>
-    <t>27AAMFM2823K1Z0</t>
-  </si>
-  <si>
-    <t>ICAM2021-47</t>
-  </si>
-  <si>
-    <t>M P ASSOCIATES</t>
-  </si>
-  <si>
-    <t>31-05-2020</t>
-  </si>
-  <si>
-    <t>27AAACH2702H3ZY</t>
-  </si>
-  <si>
-    <t>MAP2015273976415</t>
-  </si>
-  <si>
-    <t>HDFC BANK LIMITED</t>
-  </si>
-  <si>
-    <t>05-05-2020</t>
-  </si>
-  <si>
-    <t>27AALFV0333Q1ZN</t>
-  </si>
-  <si>
-    <t>VFMS/002/20-21</t>
-  </si>
-  <si>
-    <t>VARAD FACILITIES MANAGEMENT SOLUTIONS</t>
-  </si>
-  <si>
-    <t>27AABCB1518L1ZS</t>
-  </si>
-  <si>
-    <t>27CFIF0162538300</t>
-  </si>
-  <si>
-    <t>BAJAJ FINANCE LIMITED</t>
-  </si>
-  <si>
-    <t>30-06-2020</t>
-  </si>
-  <si>
-    <t>29AACCE7925K1Z7</t>
-  </si>
-  <si>
-    <t>EZECNPJUN20035</t>
-  </si>
-  <si>
-    <t>EZETAP MOBILE SOLUTIONS PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>15-06-2020</t>
-  </si>
-  <si>
-    <t>27AAACH1458C1ZZ</t>
-  </si>
-  <si>
-    <t>TATA TELESERVICES (MAHARASHTRA) LIMITED</t>
+    <t>12-08-2020</t>
+  </si>
+  <si>
+    <t>27AAACX1645B1ZO</t>
+  </si>
+  <si>
+    <t>16-08-2020</t>
+  </si>
+  <si>
+    <t>26-08-2020</t>
+  </si>
+  <si>
+    <t>27-08-2020</t>
+  </si>
+  <si>
+    <t>30-09-2020</t>
   </si>
   <si>
     <t>27BXZPB0207R1ZX</t>
   </si>
   <si>
     <t>DEVIDAS CHANDRAKANT BAGDE</t>
-  </si>
-  <si>
-    <t>09-06-2020</t>
-  </si>
-  <si>
-    <t>27AAACX1645B1ZO</t>
-  </si>
-  <si>
-    <t>XIAOMI TECHNOLOGY INDIA PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>10-06-2020</t>
-  </si>
-  <si>
-    <t>27AANPT8421H1Z8</t>
-  </si>
-  <si>
-    <t>2020-21/01</t>
-  </si>
-  <si>
-    <t>RASHMI UDDHAV THACKERAY</t>
-  </si>
-  <si>
-    <t>28-07-2020</t>
-  </si>
-  <si>
-    <t>29AAACX1645B1ZK</t>
-  </si>
-  <si>
-    <t>21-08-2020</t>
-  </si>
-  <si>
-    <t>27ACGFS5025H1Z3</t>
-  </si>
-  <si>
-    <t>SE/2020-21/0055</t>
-  </si>
-  <si>
-    <t>SOHAMRAJ ENTERPRISES</t>
-  </si>
-  <si>
-    <t>01-08-2020</t>
-  </si>
-  <si>
-    <t>27AADCP6815A2ZO</t>
-  </si>
-  <si>
-    <t>27MHR/0820/2611</t>
-  </si>
-  <si>
-    <t>ONEOTT INTERTAINMENT LIMITED</t>
-  </si>
-  <si>
-    <t>03-08-2020</t>
-  </si>
-  <si>
-    <t>27AHXPP1287C2ZV</t>
-  </si>
-  <si>
-    <t>CS/1129/20-21</t>
-  </si>
-  <si>
-    <t>RAMESH DEVJI PATEL</t>
-  </si>
-  <si>
-    <t>04-08-2020</t>
-  </si>
-  <si>
-    <t>27CKPPM3496R1ZW</t>
-  </si>
-  <si>
-    <t>ANUPAMA SUNIL TIWARI</t>
-  </si>
-  <si>
-    <t>19-09-2020</t>
-  </si>
-  <si>
-    <t>27AIQPC9679M1Z8</t>
-  </si>
-  <si>
-    <t>S00169</t>
-  </si>
-  <si>
-    <t>MADEVA DEVABHAI CHOUDHARY</t>
-  </si>
-  <si>
-    <t>31-08-2020</t>
-  </si>
-  <si>
-    <t>27AABPP3886A1ZR</t>
-  </si>
-  <si>
-    <t>083/20-21</t>
-  </si>
-  <si>
-    <t>KISHORE GANGADHAR PUNJABI</t>
-  </si>
-  <si>
-    <t>30-09-2020</t>
-  </si>
-  <si>
-    <t>29AAJCA7184P1ZR</t>
-  </si>
-  <si>
-    <t>AOD-2021-4511</t>
-  </si>
-  <si>
-    <t>AMAZON PAY (INDIA) PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>05-11-2020</t>
-  </si>
-  <si>
-    <t>24AAACX1645B1ZU</t>
-  </si>
-  <si>
-    <t>30-11-2020</t>
-  </si>
-  <si>
-    <t>27AABCB1518L4ZP</t>
-  </si>
-  <si>
-    <t>27CFIF0201742024</t>
-  </si>
-  <si>
-    <t>17-11-2020</t>
-  </si>
-  <si>
-    <t>19AAACX1645B1ZL</t>
-  </si>
-  <si>
-    <t>31-12-2020</t>
-  </si>
-  <si>
-    <t>27AAKCM5482B1ZE</t>
-  </si>
-  <si>
-    <t>MHEC202100124371</t>
-  </si>
-  <si>
-    <t>MOBITECH CREATIONS PRIVATE LIMITED</t>
-  </si>
-  <si>
-    <t>20-02-2021</t>
-  </si>
-  <si>
-    <t>33AAVFA5110A1Z1</t>
-  </si>
-  <si>
-    <t>CHE/20-21/141</t>
-  </si>
-  <si>
-    <t>A B C V &amp; ASSOCIATES</t>
   </si>
 </sst>
 </file>
@@ -659,7 +479,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,26 +529,26 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>270120210100237</v>
+      </c>
+      <c r="E2">
+        <v>28819</v>
+      </c>
+      <c r="F2">
+        <v>24423</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>2124</v>
-      </c>
-      <c r="F2">
-        <v>1800</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2198</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -736,31 +556,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>270120210100237</v>
+        <v>270120210100480</v>
       </c>
       <c r="E3">
-        <v>28819</v>
+        <v>10807</v>
       </c>
       <c r="F3">
-        <v>24423</v>
+        <v>9159</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2198</v>
+        <v>824</v>
       </c>
       <c r="J3">
-        <v>2198</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -768,31 +588,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>270120210100704</v>
       </c>
       <c r="E4">
-        <v>531354</v>
+        <v>7206</v>
       </c>
       <c r="F4">
-        <v>450300</v>
+        <v>6106</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>40527</v>
+        <v>550</v>
       </c>
       <c r="J4">
-        <v>40527</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -800,31 +620,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>270220210100180</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>45924</v>
+        <v>531354</v>
       </c>
       <c r="F5">
-        <v>38918</v>
+        <v>450300</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3503</v>
+        <v>40527</v>
       </c>
       <c r="J5">
-        <v>3503</v>
+        <v>40527</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -832,31 +652,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>15340</v>
+        <v>425036</v>
       </c>
       <c r="F6">
-        <v>13000</v>
+        <v>360200</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1170</v>
+        <v>32418</v>
       </c>
       <c r="J6">
-        <v>1170</v>
+        <v>32418</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -864,31 +684,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>22302</v>
+        <v>15340</v>
       </c>
       <c r="F7">
-        <v>18900</v>
+        <v>13000</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1701</v>
+        <v>1170</v>
       </c>
       <c r="J7">
-        <v>1701</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -896,31 +716,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>873.2</v>
+        <v>11799.98</v>
       </c>
       <c r="F8">
-        <v>740</v>
+        <v>9999.98</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>66.6</v>
+        <v>900</v>
       </c>
       <c r="J8">
-        <v>66.6</v>
+        <v>900</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -928,22 +748,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>11799.88</v>
+        <v>11800</v>
       </c>
       <c r="F9">
         <v>9999.9</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -960,31 +780,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>202007290122840</v>
       </c>
       <c r="E10">
-        <v>283</v>
+        <v>0.12</v>
       </c>
       <c r="F10">
-        <v>239.84</v>
+        <v>0.09</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I10">
-        <v>21.58</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -992,31 +812,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>270220210102533</v>
       </c>
       <c r="E11">
-        <v>787.85</v>
+        <v>45924</v>
       </c>
       <c r="F11">
-        <v>667.67</v>
+        <v>38918</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>120.18</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3503</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1024,31 +844,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>2164811467</v>
+        <v>202008270082272</v>
       </c>
       <c r="E12">
-        <v>60475</v>
+        <v>40934.85</v>
       </c>
       <c r="F12">
-        <v>51250</v>
+        <v>32513.45</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4612.5</v>
+        <v>2926.25</v>
       </c>
       <c r="J12">
-        <v>4612.5</v>
+        <v>2926.25</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1056,31 +876,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>793</v>
+        <v>202008270082274</v>
       </c>
       <c r="E13">
-        <v>403</v>
+        <v>37518.95</v>
       </c>
       <c r="F13">
-        <v>360</v>
+        <v>31795.71</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.6</v>
+        <v>2861.62</v>
       </c>
       <c r="J13">
-        <v>21.6</v>
+        <v>2861.62</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1088,31 +908,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>202006270065576</v>
+        <v>202008270082721</v>
       </c>
       <c r="E14">
-        <v>176700.93</v>
+        <v>36250.02</v>
       </c>
       <c r="F14">
-        <v>138047.59</v>
+        <v>27383.6</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19326.67</v>
+        <v>3833.71</v>
       </c>
       <c r="J14">
-        <v>19326.67</v>
+        <v>3833.71</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1120,31 +940,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>202008270084340</v>
       </c>
       <c r="E15">
-        <v>708000</v>
+        <v>94665.6</v>
       </c>
       <c r="F15">
-        <v>600000</v>
+        <v>80225.08</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>54000</v>
+        <v>7220.26</v>
       </c>
       <c r="J15">
-        <v>54000</v>
+        <v>7220.26</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1152,31 +972,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>202007290122840</v>
+        <v>202008270084867</v>
       </c>
       <c r="E16">
-        <v>0.12</v>
+        <v>881404.03</v>
       </c>
       <c r="F16">
-        <v>0.09</v>
+        <v>746952.55</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>67225.74</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>67225.74</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1184,31 +1004,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>430</v>
       </c>
       <c r="E17">
-        <v>3864</v>
+        <v>1814</v>
       </c>
       <c r="F17">
-        <v>3274</v>
+        <v>1620</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>294.66</v>
+        <v>97.2</v>
       </c>
       <c r="J17">
-        <v>294.66</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1216,350 +1036,30 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>9300001962</v>
       </c>
       <c r="E18">
-        <v>21000</v>
+        <v>30558</v>
       </c>
       <c r="F18">
-        <v>17796.61</v>
+        <v>25896.61</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4661.39</v>
       </c>
       <c r="I18">
-        <v>1601.7</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1601.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19">
-        <v>190</v>
-      </c>
-      <c r="F19">
-        <v>160.55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>14.45</v>
-      </c>
-      <c r="J19">
-        <v>14.45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20">
-        <v>32</v>
-      </c>
-      <c r="E20">
-        <v>1156.4</v>
-      </c>
-      <c r="F20">
-        <v>980</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>88.2</v>
-      </c>
-      <c r="J20">
-        <v>88.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>84.75</v>
-      </c>
-      <c r="G21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>7.63</v>
-      </c>
-      <c r="J21">
-        <v>7.63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22">
-        <v>739</v>
-      </c>
-      <c r="F22">
-        <v>660</v>
-      </c>
-      <c r="G22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>39.6</v>
-      </c>
-      <c r="J22">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23">
-        <v>28820.37</v>
-      </c>
-      <c r="F23">
-        <v>24424.04</v>
-      </c>
-      <c r="G23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23">
-        <v>4396.33</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24">
-        <v>202011240043519</v>
-      </c>
-      <c r="E24">
-        <v>23714.82</v>
-      </c>
-      <c r="F24">
-        <v>20097.31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24">
-        <v>3617.51</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25">
-        <v>531</v>
-      </c>
-      <c r="F25">
-        <v>450</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>40.5</v>
-      </c>
-      <c r="J25">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26">
-        <v>202011190078749</v>
-      </c>
-      <c r="E26">
-        <v>54295.01</v>
-      </c>
-      <c r="F26">
-        <v>42417.98</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26">
-        <v>11877.03</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27">
-        <v>3231.02</v>
-      </c>
-      <c r="F27">
-        <v>2738.14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>246.44</v>
-      </c>
-      <c r="J27">
-        <v>246.44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28">
-        <v>29500</v>
-      </c>
-      <c r="F28">
-        <v>25000</v>
-      </c>
-      <c r="G28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28">
-        <v>4500</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
         <v>0</v>
       </c>
     </row>
